--- a/data/trans_camb/IP19C06-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP19C06-Habitat-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-3,82</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>-3,82</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>-3,82</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,63</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,52</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,58</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>-1,68</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,23; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,27; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,15</t>
+          <t>-23,67; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,33; 4,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,29</t>
+          <t>-8,98; 0,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,59</t>
+          <t>-8,87; 0,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,32</t>
+          <t>-9,01; 0,0</t>
         </is>
       </c>
     </row>
@@ -738,47 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,63</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,79</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>0,98</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 3,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,9; 0,0</t>
+          <t>0,0; 3,15</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,64</t>
+          <t>0,0; 2,93</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,75; 6,73</t>
+          <t>0,33; 4,01</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 3,11</t>
+          <t>0,0; 1,29</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 0,0</t>
+          <t>0,0; 1,59</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 2,92</t>
+          <t>0,24; 2,32</t>
         </is>
       </c>
     </row>
@@ -1170,17 +1170,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>83,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1200,17 +1200,17 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>308,09%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>267,89%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-3,82</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-3,82</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,82</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>1,51</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,68</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-1,68</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,68</t>
+          <t>0,58</t>
         </is>
       </c>
     </row>
@@ -1333,22 +1333,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-21,23; 0,0</t>
+          <t>0,0; 5,78</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-21,27; 0,0</t>
+          <t>0,0; 4,67</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-23,67; 0,0</t>
+          <t>0,0; 3,99</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 4,96</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,22 +1358,22 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,87</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-8,98; 0,0</t>
+          <t>0,28; 3,71</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 0,0</t>
+          <t>0,0; 2,3</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-9,01; 0,0</t>
+          <t>0,0; 2,21</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1486,7 +1486,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,22 +1496,22 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1521,22 +1521,22 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>2,79</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>1,0</t>
         </is>
       </c>
     </row>
@@ -1549,22 +1549,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,78</t>
+          <t>-1,55; 3,01</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,67</t>
+          <t>-3,87; 0,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,99</t>
+          <t>-3,9; 0,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,96</t>
+          <t>0,0; 5,64</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1574,22 +1574,22 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,87</t>
+          <t>0,75; 6,73</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,28; 3,71</t>
+          <t>-0,32; 3,11</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,3</t>
+          <t>-1,89; 0,0</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,21</t>
+          <t>-0,37; 2,92</t>
         </is>
       </c>
     </row>
@@ -1602,17 +1602,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>83,74%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1632,17 +1632,17 @@
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>308,09%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>267,89%</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP19C06-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP19C06-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -685,17 +685,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-21,23; 0,0</t>
+          <t>-20,93; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-21,27; 0,0</t>
+          <t>-21,66; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-23,67; 0,0</t>
+          <t>-22,92; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -715,17 +715,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-8,98; 0,0</t>
+          <t>-8,7; 0,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 0,0</t>
+          <t>-8,61; 0,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-9,01; 0,0</t>
+          <t>-9,26; 0,0</t>
         </is>
       </c>
     </row>
@@ -921,12 +921,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,89</t>
+          <t>0,0; 7,97</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,79</t>
+          <t>0,0; 6,62</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,32</t>
+          <t>0,0; 3,79</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,85</t>
+          <t>0,0; 2,84</t>
         </is>
       </c>
     </row>
@@ -1127,22 +1127,22 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,15</t>
+          <t>0,0; 3,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,93</t>
+          <t>0,0; 3,31</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,43</t>
+          <t>0,0; 2,91</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,33; 4,01</t>
+          <t>0,33; 4,17</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1152,12 +1152,12 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,59</t>
+          <t>0,0; 1,43</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,32</t>
+          <t>0,27; 2,59</t>
         </is>
       </c>
     </row>
@@ -1333,22 +1333,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,78</t>
+          <t>0,0; 5,34</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,67</t>
+          <t>0,0; 4,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,99</t>
+          <t>0,0; 3,25</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,96</t>
+          <t>0,0; 5,16</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,22 +1358,22 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,87</t>
+          <t>0,0; 2,58</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,28; 3,71</t>
+          <t>0,28; 3,73</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,3</t>
+          <t>0,0; 2,31</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,21</t>
+          <t>0,0; 2,2</t>
         </is>
       </c>
     </row>
@@ -1549,22 +1549,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,55; 3,01</t>
+          <t>-1,67; 3,48</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
+          <t>-3,86; 0,0</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
           <t>-3,87; 0,0</t>
         </is>
       </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-3,9; 0,0</t>
-        </is>
-      </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,64</t>
+          <t>0,0; 5,32</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1574,22 +1574,22 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,75; 6,73</t>
+          <t>0,73; 6,74</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 3,11</t>
+          <t>-0,32; 3,15</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 0,0</t>
+          <t>-2,11; 0,0</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 2,92</t>
+          <t>-0,36; 2,64</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 1,35</t>
+          <t>-0,44; 1,2</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 0,38</t>
+          <t>-0,87; 0,38</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 0,89</t>
+          <t>-0,6; 0,87</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,0</t>
+          <t>0,32; 2,11</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,49</t>
+          <t>0,0; 1,2</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,73; 2,62</t>
+          <t>0,63; 2,77</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,11; 1,21</t>
+          <t>0,08; 1,17</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 0,59</t>
+          <t>-0,22; 0,6</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,32</t>
+          <t>0,15; 1,32</t>
         </is>
       </c>
     </row>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-61,01; —</t>
+          <t>-39,8; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
@@ -1911,7 +1911,14 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-9,14; —</t>
+          <t>0,61; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP19C06-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP19C06-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,17 +685,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-20,93; 0,0</t>
+          <t>-18,85; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-21,66; 0,0</t>
+          <t>-16,93; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-22,92; 0,0</t>
+          <t>-22,45; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -715,17 +715,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-8,7; 0,0</t>
+          <t>-8,81; 0,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-8,61; 0,0</t>
+          <t>-8,69; 0,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-9,26; 0,0</t>
+          <t>-9,06; 0,0</t>
         </is>
       </c>
     </row>
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,97</t>
+          <t>0,0; 6,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,62</t>
+          <t>0,0; 6,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,79</t>
+          <t>0,0; 4,47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,84</t>
+          <t>0,0; 2,64</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1127,37 +1127,37 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,29</t>
+          <t>0,0; 3,16</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,31</t>
+          <t>0,0; 3,14</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,91</t>
+          <t>0,0; 2,35</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,33; 4,17</t>
+          <t>0,0; 3,82</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,29</t>
+          <t>0,0; 1,38</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,43</t>
+          <t>0,0; 1,44</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,59</t>
+          <t>0,24; 2,53</t>
         </is>
       </c>
     </row>
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,22 +1333,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,34</t>
+          <t>0,0; 6,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,05</t>
+          <t>0,0; 5,53</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,25</t>
+          <t>0,0; 3,88</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,16</t>
+          <t>0,0; 5,21</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,22 +1358,22 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,58</t>
+          <t>0,0; 1,72</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,28; 3,73</t>
+          <t>0,28; 3,72</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,31</t>
+          <t>0,0; 2,33</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,2</t>
+          <t>0,0; 2,16</t>
         </is>
       </c>
     </row>
@@ -1549,22 +1549,22 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 3,48</t>
+          <t>-1,57; 3,45</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 0,0</t>
+          <t>-3,88; 0,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,87; 0,0</t>
+          <t>-3,89; 0,0</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,32</t>
+          <t>0,0; 5,74</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1574,22 +1574,22 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,73; 6,74</t>
+          <t>0,75; 6,54</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 3,15</t>
+          <t>-0,31; 3,22</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 0,0</t>
+          <t>-1,88; 0,0</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 2,64</t>
+          <t>-0,37; 2,83</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 1,2</t>
+          <t>-0,49; 1,25</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 0,38</t>
+          <t>-0,91; 0,38</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 0,87</t>
+          <t>-0,63; 1,0</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>0,32; 2,11</t>
+          <t>0,32; 2,04</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,2</t>
+          <t>0,0; 1,36</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,63; 2,77</t>
+          <t>0,74; 2,84</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,08; 1,17</t>
+          <t>0,09; 1,34</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 0,6</t>
+          <t>-0,25; 0,52</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,32</t>
+          <t>0,24; 1,42</t>
         </is>
       </c>
     </row>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-39,8; —</t>
+          <t>-35,97; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>0,61; —</t>
+          <t>6,49; —</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP19C06-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP19C06-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,82</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,82</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,82</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-1,68</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-1,68</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-1,68</t>
+          <t>0,15</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-18,85; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-16,93; 0,0</t>
+          <t>0,0; 7,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-22,45; 0,0</t>
+          <t>0,0; 5,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,92; 0,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,81; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,56; 0,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-8,81; 0,0</t>
+          <t>-1,81; 0,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-8,69; 0,0</t>
+          <t>-0,67; 1,99</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-9,06; 0,0</t>
+          <t>-0,67; 1,74</t>
         </is>
       </c>
     </row>
@@ -738,34 +738,34 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
@@ -773,12 +773,12 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>58,22%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>44,54%</t>
         </is>
       </c>
     </row>
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,52</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,58</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1,52</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>1,38</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>0,8</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,26</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>1,09</t>
         </is>
       </c>
     </row>
@@ -901,17 +901,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,35; 4,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -921,27 +921,27 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,61</t>
+          <t>0,0; 3,93</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 1,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,47</t>
+          <t>0,0; 1,59</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,64</t>
+          <t>0,25; 2,72</t>
         </is>
       </c>
     </row>
@@ -954,29 +954,29 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
@@ -984,7 +984,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>1,51</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,65</t>
         </is>
       </c>
     </row>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 4,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1127,37 +1127,37 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,16</t>
+          <t>0,0; 1,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,14</t>
+          <t>0,0; 5,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,35</t>
+          <t>0,0; 4,67</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,82</t>
+          <t>0,0; 4,6</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,38</t>
+          <t>0,28; 3,71</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,44</t>
+          <t>0,0; 2,3</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,24; 2,53</t>
+          <t>0,0; 2,61</t>
         </is>
       </c>
     </row>
@@ -1170,7 +1170,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>1,63</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>2,83</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,41</t>
+          <t>-0,77</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>0,97</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,03</t>
+          <t>0,0; 5,64</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,88</t>
+          <t>0,74; 6,77</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,21</t>
+          <t>-1,55; 3,01</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,87; 0,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,72</t>
+          <t>-3,9; 0,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,28; 3,72</t>
+          <t>-0,32; 3,11</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,33</t>
+          <t>-1,89; 0,0</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,16</t>
+          <t>-0,38; 2,86</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -1401,32 +1401,32 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>83,74%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>308,09%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>260,15%</t>
         </is>
       </c>
     </row>
@@ -1486,7 +1486,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,63</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>2,79</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>0,76</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 3,45</t>
+          <t>0,32; 2,0</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 0,0</t>
+          <t>0,0; 1,49</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 0,0</t>
+          <t>0,73; 2,66</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,74</t>
+          <t>-0,44; 1,35</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,82; 0,38</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,75; 6,54</t>
+          <t>-0,45; 1,17</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 3,22</t>
+          <t>0,11; 1,21</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 0,0</t>
+          <t>-0,24; 0,59</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 2,83</t>
+          <t>0,21; 1,42</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>83,74%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>80,15%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,6%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>45,55%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>308,09%</t>
+          <t>342,58%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>67,02%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>267,89%</t>
+          <t>442,67%</t>
         </is>
       </c>
     </row>
@@ -1685,7 +1685,7 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,01; —</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -1695,235 +1695,19 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,7; —</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>0,27</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-0,15</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>0,07</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>0,91</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>0,38</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>1,45</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>0,59</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>0,11</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>0,72</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-0,49; 1,25</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-0,91; 0,38</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-0,63; 1,0</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>0,32; 2,04</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,36</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>0,74; 2,84</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>0,09; 1,34</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-0,25; 0,52</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>0,24; 1,42</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>80,15%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-43,6%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>20,86%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>342,58%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>67,02%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>420,66%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-35,97; —</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>6,49; —</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
